--- a/outputs-r202/test-g__UBA4334.xlsx
+++ b/outputs-r202/test-g__UBA4334.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Row</t>
   </si>
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,14 +140,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,682 +187,682 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="C2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="D2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="E2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="F2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="G2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="H2">
-        <v>0.19037195293886203</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="I2">
-        <v>1.7407953253864287e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="J2">
-        <v>1.7407953253864289e-13</v>
+        <v>0.99999999434906539</v>
       </c>
       <c r="K2">
-        <v>0.23777232647378874</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="L2">
-        <v>0.00071279877876311731</v>
+        <v>5.6505793686433461e-09</v>
       </c>
       <c r="M2">
-        <v>1.7407953253864305e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="N2">
-        <v>1.7407953253864305e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="O2">
-        <v>2.7062990084947682e-05</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="P2">
-        <v>0.19037195293886214</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="Q2">
-        <v>1.7407953253864302e-13</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="R2">
-        <v>0.19037195293886225</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="S2">
-        <v>0.19037195293886194</v>
+        <v>2.2204460485531803e-14</v>
       </c>
       <c r="T2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="C3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="G3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="H3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="K3">
+        <v>0.99999999999957356</v>
+      </c>
+      <c r="L3">
+        <v>7.1257748078791508e-14</v>
+      </c>
+      <c r="M3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="N3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="O3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="P3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="Q3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="R3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="S3">
+        <v>2.2204460492502165e-14</v>
+      </c>
+      <c r="T3">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="C3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="D3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="E3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="F3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="G3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="H3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="I3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="J3">
-        <v>0.99999938665561505</v>
-      </c>
-      <c r="K3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="L3">
-        <v>6.13344029571785e-07</v>
-      </c>
-      <c r="M3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="N3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="O3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="P3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="Q3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="R3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="S3">
-        <v>2.2204459735894002e-14</v>
-      </c>
-      <c r="T3">
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="C4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="G4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="J4">
+        <v>0.99999999717739563</v>
+      </c>
+      <c r="K4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.8222490235644689e-09</v>
+      </c>
+      <c r="M4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="N4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="S4">
+        <v>2.2204460489020783e-14</v>
+      </c>
+      <c r="T4">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="C4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="D4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="E4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="F4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="G4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="H4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="I4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="J4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="K4">
-        <v>0.99999999989156918</v>
-      </c>
-      <c r="L4">
-        <v>1.0807562680147167e-10</v>
-      </c>
-      <c r="M4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="N4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="O4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="P4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="Q4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="R4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="S4">
-        <v>2.220446049236893e-14</v>
-      </c>
-      <c r="T4">
-        <v>10</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="I5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="J5">
-        <v>0.99999959622588452</v>
+        <v>0.99999999858462019</v>
       </c>
       <c r="K5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="L5">
-        <v>4.0377376029328151e-07</v>
+        <v>1.4150244752731616e-09</v>
       </c>
       <c r="M5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="N5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="O5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="P5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="R5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="S5">
-        <v>2.2204459994415153e-14</v>
+        <v>2.2204460490756713e-14</v>
       </c>
       <c r="T5">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="I6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="J6">
-        <v>0.99999999265275541</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="K6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="L6">
-        <v>7.3468894128238802e-09</v>
+        <v>0.99999730156144484</v>
       </c>
       <c r="M6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="O6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.6984381995932674e-06</v>
       </c>
       <c r="P6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="Q6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="R6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="S6">
-        <v>2.2204460483439277e-14</v>
+        <v>2.2222678450288598e-14</v>
       </c>
       <c r="T6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="C7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="D7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="E7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="F7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="G7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="H7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="J7">
+        <v>0.99999999956239505</v>
+      </c>
+      <c r="K7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="L7">
+        <v>4.3724957995563614e-10</v>
+      </c>
+      <c r="M7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="N7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="O7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="P7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="S7">
+        <v>2.2204460491962875e-14</v>
+      </c>
+      <c r="T7">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="C7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="D7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="E7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="F7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="G7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="H7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="I7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="J7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="K7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="L7">
-        <v>0.99978471624765897</v>
-      </c>
-      <c r="M7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="N7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="O7">
-        <v>0.00021528375198438931</v>
-      </c>
-      <c r="P7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="Q7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="R7">
-        <v>2.2273425004466939e-14</v>
-      </c>
-      <c r="S7">
-        <v>2.2273425004466942e-14</v>
-      </c>
-      <c r="T7">
-        <v>11</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="C8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="D8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="E8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="F8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="G8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="H8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="I8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="J8">
-        <v>0.99999998588856076</v>
+        <v>0.99999999921035387</v>
       </c>
       <c r="K8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="L8">
-        <v>1.4111057302826809e-08</v>
+        <v>7.8929076380741749e-10</v>
       </c>
       <c r="M8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="N8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="O8">
-        <v>4.8755809765702482e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="P8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="R8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="S8">
-        <v>2.2204460475095116e-14</v>
+        <v>2.2204460491528597e-14</v>
       </c>
       <c r="T8">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="C9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="D9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="E9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="F9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="G9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="H9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="I9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="J9">
-        <v>0.99998075121858709</v>
+        <v>0.9999999994815657</v>
       </c>
       <c r="K9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="L9">
-        <v>1.9248781057690441e-05</v>
+        <v>5.1807899693144585e-10</v>
       </c>
       <c r="M9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="N9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="O9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="P9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="Q9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="R9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="S9">
-        <v>2.2204436748917961e-14</v>
+        <v>2.2204460491863156e-14</v>
       </c>
       <c r="T9">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="C10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="D10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="G10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="J10">
+        <v>0.999999999039201</v>
+      </c>
+      <c r="K10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="L10">
+        <v>9.6044376286236529e-10</v>
+      </c>
+      <c r="M10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="N10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="O10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="P10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="S10">
+        <v>2.2204460491317473e-14</v>
+      </c>
+      <c r="T10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.04968194460937355</v>
-      </c>
-      <c r="C10">
-        <v>0.04968194460937355</v>
-      </c>
-      <c r="D10">
-        <v>0.04968194460937355</v>
-      </c>
-      <c r="E10">
-        <v>0.1131628029593731</v>
-      </c>
-      <c r="F10">
-        <v>0.049681944609373627</v>
-      </c>
-      <c r="G10">
-        <v>0.049681944609373578</v>
-      </c>
-      <c r="H10">
-        <v>0.049681944609373606</v>
-      </c>
-      <c r="I10">
-        <v>0.049681944609373606</v>
-      </c>
-      <c r="J10">
-        <v>0.049681944609373606</v>
-      </c>
-      <c r="K10">
-        <v>0.04968194460937353</v>
-      </c>
-      <c r="L10">
-        <v>0.049681945209339627</v>
-      </c>
-      <c r="M10">
-        <v>0.04968194460937353</v>
-      </c>
-      <c r="N10">
-        <v>0.04968194460937353</v>
-      </c>
-      <c r="O10">
-        <v>0.049681944609871187</v>
-      </c>
-      <c r="P10">
-        <v>0.04968194460937353</v>
-      </c>
-      <c r="Q10">
-        <v>0.04968194460937353</v>
-      </c>
-      <c r="R10">
-        <v>0.091926082690187996</v>
-      </c>
-      <c r="S10">
-        <v>0.04968194460937176</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="C11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="E11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="F11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="G11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="H11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="I11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="J11">
-        <v>0.99999979170701669</v>
+        <v>0.99999999967622077</v>
       </c>
       <c r="K11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="L11">
-        <v>2.0829262795886376e-07</v>
+        <v>3.2342394098435334e-10</v>
       </c>
       <c r="M11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="N11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="O11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="P11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="Q11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="R11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="S11">
-        <v>2.2204460235556553e-14</v>
+        <v>2.2204460492103282e-14</v>
       </c>
       <c r="T11">
         <v>9</v>
